--- a/Specifikacije projekta/03 Analiza tržišta _MusicStreamingService.xlsx
+++ b/Specifikacije projekta/03 Analiza tržišta _MusicStreamingService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\priv\MusicStreamingService\Specifikacije projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F52F28-89BD-460B-B960-AAEE05C77046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE326C37-653D-4713-AB81-F18D03A6F41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,6 +568,9 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -585,9 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1008,7 +1008,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1052,19 +1052,19 @@
     </row>
     <row r="4" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="32" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,11 +1130,11 @@
       </c>
       <c r="I7" s="15">
         <f ca="1">TODAY()-5</f>
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="J7" s="15">
         <f ca="1">TODAY()-3</f>
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="K7" s="16"/>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="D8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="32" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -1184,7 +1184,7 @@
       <c r="D9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -1217,7 +1217,7 @@
       <c r="D10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="32" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="18" t="s">
@@ -1250,7 +1250,7 @@
       <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -1283,7 +1283,7 @@
       <c r="D12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="32" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="18" t="s">
